--- a/TestData/OrderTestData/orderTestCase.xlsx
+++ b/TestData/OrderTestData/orderTestCase.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\OrderTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2808878-87D0-4D2A-A1F2-3C3ACD78ECB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D83345E-129C-42A7-A6BB-A0E302FD640C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forCustomer" sheetId="1" r:id="rId1"/>
-    <sheet name="forStore" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="forStore" sheetId="5" r:id="rId2"/>
+    <sheet name="forNewCustomer" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="122">
   <si>
     <t>username</t>
   </si>
@@ -313,9 +313,6 @@
     <t>front</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -325,9 +322,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>33</t>
   </si>
   <si>
@@ -346,9 +340,6 @@
     <t>discount</t>
   </si>
   <si>
-    <t>101010</t>
-  </si>
-  <si>
     <t>101011</t>
   </si>
   <si>
@@ -356,13 +347,55 @@
   </si>
   <si>
     <t>101013</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dob</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>zyx Test 2</t>
+  </si>
+  <si>
+    <t>xyz Test 1</t>
+  </si>
+  <si>
+    <t>2023-05-28</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>Siliguri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">female </t>
+  </si>
+  <si>
+    <t>98824838858</t>
+  </si>
+  <si>
+    <t>9883270780</t>
+  </si>
+  <si>
+    <t>z1yx@mail.com</t>
+  </si>
+  <si>
+    <t>x2yz@mail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +536,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -801,7 +842,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -844,13 +885,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -884,6 +927,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1207,8 +1251,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1620,37 +1664,101 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="G6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>46</v>
+      </c>
+      <c r="P6" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>12</v>
+      </c>
+      <c r="R6" s="1">
+        <v>11</v>
+      </c>
+      <c r="S6" s="1">
+        <v>7</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>9</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>100900</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K2:K5 G2:G3 C3:C5 G4:G5" numberStoredAsText="1"/>
+    <ignoredError sqref="K2:K5 G2:G3 C3:C6 G4:G6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5598500-3CF1-420C-89B6-8B84FF1C3B82}">
-  <dimension ref="A1:X9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECFF00E-9730-4B45-8873-16E5E2653898}">
+  <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="OV1" workbookViewId="0">
-      <selection activeCell="PB6" sqref="PB6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="11" max="11" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="8.88671875" style="1"/>
-    <col min="15" max="15" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="1"/>
-    <col min="17" max="17" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.88671875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1714,13 +1822,13 @@
         <v>13</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>25</v>
@@ -1764,7 +1872,7 @@
         <v>7</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N2" s="1">
         <v>11</v>
@@ -1788,7 +1896,7 @@
         <v>5.6</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="V2">
         <v>20000</v>
@@ -1797,107 +1905,444 @@
         <v>1000</v>
       </c>
       <c r="X2" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="1">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1">
+        <v>7</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N3" s="1">
+        <v>11</v>
+      </c>
+      <c r="O3" s="1">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>12</v>
+      </c>
+      <c r="R3" s="1">
+        <v>46</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T3" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="U3" t="s">
+        <v>81</v>
+      </c>
+      <c r="V3">
+        <v>20000</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="1">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1">
+        <v>7</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="1">
+        <v>11</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5</v>
+      </c>
+      <c r="P4" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>12</v>
+      </c>
+      <c r="R4" s="1">
+        <v>46</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T4" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="U4" t="s">
+        <v>82</v>
+      </c>
+      <c r="V4">
+        <v>20000</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="J9" s="1"/>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="1">
+        <v>8</v>
+      </c>
+      <c r="L5" s="1">
+        <v>7</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5" s="1">
+        <v>11</v>
+      </c>
+      <c r="O5" s="1">
+        <v>5</v>
+      </c>
+      <c r="P5" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>12</v>
+      </c>
+      <c r="R5" s="1">
+        <v>46</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T5" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="U5" t="s">
+        <v>79</v>
+      </c>
+      <c r="V5">
+        <v>20000</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8</v>
+      </c>
+      <c r="L6" s="1">
+        <v>7</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" s="1">
+        <v>11</v>
+      </c>
+      <c r="O6" s="1">
+        <v>5</v>
+      </c>
+      <c r="P6" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>12</v>
+      </c>
+      <c r="R6" s="1">
+        <v>46</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="U6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V6">
+        <v>20000</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E2 I2 S2 M2 X2" numberStoredAsText="1"/>
+    <ignoredError sqref="E2:E6 I2:I6 S2:S6 X2:X6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75904CA-780D-4078-9ECB-A0AE5CFCF05B}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>80</v>
+        <v>111</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="1">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1">
-        <v>7</v>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" s="1">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="1">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1">
-        <v>46</v>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="T1" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="U1" t="s">
-        <v>79</v>
-      </c>
-      <c r="V1">
-        <v>20000</v>
-      </c>
-      <c r="W1" s="1">
-        <v>1000</v>
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1905,73 +2350,88 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="P2" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R2" s="1">
+        <v>5</v>
+      </c>
+      <c r="S2" s="1">
+        <v>46</v>
+      </c>
+      <c r="T2" s="1">
         <v>8</v>
       </c>
-      <c r="L2" s="1">
+      <c r="U2" s="1">
+        <v>12</v>
+      </c>
+      <c r="V2" s="1">
+        <v>11</v>
+      </c>
+      <c r="W2" s="1">
         <v>7</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N2" s="1">
-        <v>11</v>
-      </c>
-      <c r="O2" s="1">
-        <v>5</v>
-      </c>
-      <c r="P2" s="1">
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
         <v>9</v>
       </c>
-      <c r="Q2" s="1">
-        <v>12</v>
-      </c>
-      <c r="R2" s="1">
-        <v>46</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T2" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="U2" t="s">
-        <v>81</v>
-      </c>
-      <c r="V2">
-        <v>20000</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>100900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1979,74 +2439,98 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>112</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="P3" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R3" s="1">
+        <v>5</v>
+      </c>
+      <c r="S3" s="1">
+        <v>46</v>
+      </c>
+      <c r="T3" s="1">
         <v>8</v>
       </c>
-      <c r="L3" s="1">
+      <c r="U3" s="1">
+        <v>12</v>
+      </c>
+      <c r="V3" s="1">
+        <v>11</v>
+      </c>
+      <c r="W3" s="1">
         <v>7</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N3" s="1">
-        <v>11</v>
-      </c>
-      <c r="O3" s="1">
-        <v>5</v>
-      </c>
-      <c r="P3" s="1">
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
         <v>9</v>
       </c>
-      <c r="Q3" s="1">
-        <v>12</v>
-      </c>
-      <c r="R3" s="1">
-        <v>46</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T3" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="U3" t="s">
-        <v>82</v>
-      </c>
-      <c r="V3">
-        <v>20000</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>110</v>
+      <c r="Z3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>100900</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{28BACDD6-1C1A-4418-AD6D-9CF3E9C2C6F3}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{F1D94487-879F-457F-8628-F6F4D090E28A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <ignoredErrors>
+    <ignoredError sqref="K2:K3 O2:O3" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2055,7 +2539,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E4"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestData/OrderTestData/orderTestCase.xlsx
+++ b/TestData/OrderTestData/orderTestCase.xlsx
@@ -8,22 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\OrderTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D83345E-129C-42A7-A6BB-A0E302FD640C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CA5F35-B64F-449A-8F60-4630F60529A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forCustomer" sheetId="1" r:id="rId1"/>
     <sheet name="forStore" sheetId="5" r:id="rId2"/>
     <sheet name="forNewCustomer" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="forSync" sheetId="7" r:id="rId4"/>
+    <sheet name="searchInput" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="135">
   <si>
     <t>username</t>
   </si>
@@ -274,9 +277,6 @@
     <t>Test 004</t>
   </si>
   <si>
-    <t>2023-04-29</t>
-  </si>
-  <si>
     <t>Bronze Mist Antique</t>
   </si>
   <si>
@@ -361,12 +361,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>zyx Test 2</t>
-  </si>
-  <si>
-    <t>xyz Test 1</t>
-  </si>
-  <si>
     <t>2023-05-28</t>
   </si>
   <si>
@@ -376,19 +370,67 @@
     <t>Siliguri</t>
   </si>
   <si>
-    <t xml:space="preserve">female </t>
-  </si>
-  <si>
-    <t>98824838858</t>
-  </si>
-  <si>
-    <t>9883270780</t>
-  </si>
-  <si>
-    <t>z1yx@mail.com</t>
-  </si>
-  <si>
-    <t>x2yz@mail.com</t>
+    <t>abced Test 1</t>
+  </si>
+  <si>
+    <t>abced Test 2</t>
+  </si>
+  <si>
+    <t>abced Test 3</t>
+  </si>
+  <si>
+    <t>abced Test 4</t>
+  </si>
+  <si>
+    <t>abced Test 5</t>
+  </si>
+  <si>
+    <t>9881012051</t>
+  </si>
+  <si>
+    <t>9881012052</t>
+  </si>
+  <si>
+    <t>9881012053</t>
+  </si>
+  <si>
+    <t>9881012054</t>
+  </si>
+  <si>
+    <t>9881012055</t>
+  </si>
+  <si>
+    <t>testuser151@mail.com</t>
+  </si>
+  <si>
+    <t>testuser152@mail.com</t>
+  </si>
+  <si>
+    <t>testuser153@mail.com</t>
+  </si>
+  <si>
+    <t>testuser154@mail.com</t>
+  </si>
+  <si>
+    <t>testuser155@mail.com</t>
+  </si>
+  <si>
+    <t>searchValue</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
   </si>
 </sst>
 </file>
@@ -1251,8 +1293,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:Y3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1420,13 +1462,13 @@
         <v>9</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="Y2" s="1">
         <v>100900</v>
@@ -1440,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>26</v>
@@ -1449,19 +1491,19 @@
         <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>80</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>38</v>
@@ -1503,7 +1545,7 @@
         <v>79</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="Y3" s="1">
         <v>100900</v>
@@ -1517,7 +1559,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>40</v>
@@ -1526,7 +1568,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>38</v>
@@ -1574,13 +1616,13 @@
         <v>9</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>81</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="Y4" s="1">
         <v>100900</v>
@@ -1594,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>26</v>
@@ -1603,19 +1645,19 @@
         <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>38</v>
@@ -1651,13 +1693,13 @@
         <v>9</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>82</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="Y5" s="1">
         <v>100900</v>
@@ -1671,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>40</v>
@@ -1680,19 +1722,19 @@
         <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>38</v>
@@ -1728,13 +1770,13 @@
         <v>9</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>82</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="Y6" s="1">
         <v>100900</v>
@@ -1816,19 +1858,19 @@
         <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>25</v>
@@ -1863,7 +1905,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K2" s="1">
         <v>8</v>
@@ -1872,7 +1914,7 @@
         <v>7</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N2" s="1">
         <v>11</v>
@@ -1890,7 +1932,7 @@
         <v>46</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T2" s="1">
         <v>5.6</v>
@@ -1905,7 +1947,7 @@
         <v>1000</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
@@ -1919,19 +1961,19 @@
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>38</v>
@@ -1946,7 +1988,7 @@
         <v>7</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N3" s="1">
         <v>11</v>
@@ -1964,7 +2006,7 @@
         <v>46</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T3" s="1">
         <v>5.6</v>
@@ -1979,7 +2021,7 @@
         <v>1000</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
@@ -1993,7 +2035,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>38</v>
@@ -2011,7 +2053,7 @@
         <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K4" s="1">
         <v>8</v>
@@ -2020,7 +2062,7 @@
         <v>7</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N4" s="1">
         <v>11</v>
@@ -2038,7 +2080,7 @@
         <v>46</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T4" s="1">
         <v>5.6</v>
@@ -2053,7 +2095,7 @@
         <v>1000</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -2067,25 +2109,25 @@
         <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" s="1">
         <v>8</v>
@@ -2094,7 +2136,7 @@
         <v>7</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N5" s="1">
         <v>11</v>
@@ -2112,7 +2154,7 @@
         <v>46</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T5" s="1">
         <v>5.6</v>
@@ -2127,7 +2169,7 @@
         <v>1000</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -2141,25 +2183,25 @@
         <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K6" s="1">
         <v>8</v>
@@ -2168,7 +2210,7 @@
         <v>7</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N6" s="1">
         <v>11</v>
@@ -2186,7 +2228,7 @@
         <v>46</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T6" s="1">
         <v>5.6</v>
@@ -2201,7 +2243,7 @@
         <v>1000</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2215,10 +2257,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75904CA-780D-4078-9ECB-A0AE5CFCF05B}">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2264,16 +2306,16 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -2350,19 +2392,19 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>26</v>
@@ -2419,13 +2461,13 @@
         <v>9</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="AC2" s="1">
         <v>100900</v>
@@ -2439,40 +2481,40 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>80</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>38</v>
@@ -2514,9 +2556,276 @@
         <v>79</v>
       </c>
       <c r="AB3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>100900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R4" s="1">
+        <v>5</v>
+      </c>
+      <c r="S4" s="1">
+        <v>46</v>
+      </c>
+      <c r="T4" s="1">
+        <v>8</v>
+      </c>
+      <c r="U4" s="1">
+        <v>12</v>
+      </c>
+      <c r="V4" s="1">
+        <v>11</v>
+      </c>
+      <c r="W4" s="1">
+        <v>7</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>100900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="K5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R5" s="1">
+        <v>5</v>
+      </c>
+      <c r="S5" s="1">
+        <v>46</v>
+      </c>
+      <c r="T5" s="1">
+        <v>8</v>
+      </c>
+      <c r="U5" s="1">
+        <v>12</v>
+      </c>
+      <c r="V5" s="1">
+        <v>11</v>
+      </c>
+      <c r="W5" s="1">
+        <v>7</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>100900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R6" s="1">
+        <v>5</v>
+      </c>
+      <c r="S6" s="1">
+        <v>46</v>
+      </c>
+      <c r="T6" s="1">
+        <v>8</v>
+      </c>
+      <c r="U6" s="1">
+        <v>12</v>
+      </c>
+      <c r="V6" s="1">
+        <v>11</v>
+      </c>
+      <c r="W6" s="1">
+        <v>7</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC6" s="1">
         <v>100900</v>
       </c>
     </row>
@@ -2524,17 +2833,690 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{28BACDD6-1C1A-4418-AD6D-9CF3E9C2C6F3}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{F1D94487-879F-457F-8628-F6F4D090E28A}"/>
+    <hyperlink ref="E3:E6" r:id="rId2" display="testuser111@mail.com" xr:uid="{8D141152-0D9B-4A31-B82D-818FB4890CCA}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{6CAB85A3-9E25-46E6-8953-CE2579296C0A}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{2791EC7A-45F5-4553-9509-C8875B8E2693}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{9C8F5A5A-261A-4EA9-B13C-AAF0B559B418}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{571661CA-9FA4-41E3-B8E7-8B83947D2F73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <ignoredErrors>
-    <ignoredError sqref="K2:K3 O2:O3" numberStoredAsText="1"/>
+    <ignoredError sqref="K2 O2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C688C3D-51E4-4D9C-BBCF-CA6AF3FBDF3A}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X2" sqref="A1:Y6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9860838858</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="M2" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N2" s="1">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>12</v>
+      </c>
+      <c r="R2" s="1">
+        <v>11</v>
+      </c>
+      <c r="S2" s="1">
+        <v>7</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>9</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>100900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N3" s="1">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>46</v>
+      </c>
+      <c r="P3" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>12</v>
+      </c>
+      <c r="R3" s="1">
+        <v>11</v>
+      </c>
+      <c r="S3" s="1">
+        <v>7</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>9</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>100900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="M4" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>46</v>
+      </c>
+      <c r="P4" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>12</v>
+      </c>
+      <c r="R4" s="1">
+        <v>11</v>
+      </c>
+      <c r="S4" s="1">
+        <v>7</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>9</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>100900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N5" s="1">
+        <v>5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>46</v>
+      </c>
+      <c r="P5" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>12</v>
+      </c>
+      <c r="R5" s="1">
+        <v>11</v>
+      </c>
+      <c r="S5" s="1">
+        <v>7</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>9</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>100900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>46</v>
+      </c>
+      <c r="P6" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>12</v>
+      </c>
+      <c r="R6" s="1">
+        <v>11</v>
+      </c>
+      <c r="S6" s="1">
+        <v>7</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>9</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>100900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C3:C6 G2:G6 K2:K6" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641D3458-B4AC-4339-95D6-C05AB498F0B5}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C2:C6" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C8C9D2-0560-46EE-BE2F-019B85D0652F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2307DF76-8D59-4BB9-85B5-E25A9C0603D6}">
   <dimension ref="A1:F41"/>
   <sheetViews>

--- a/TestData/OrderTestData/orderTestCase.xlsx
+++ b/TestData/OrderTestData/orderTestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\OrderTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CA5F35-B64F-449A-8F60-4630F60529A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE445DC7-986D-44A6-9F11-C02071248EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,36 +385,6 @@
     <t>abced Test 5</t>
   </si>
   <si>
-    <t>9881012051</t>
-  </si>
-  <si>
-    <t>9881012052</t>
-  </si>
-  <si>
-    <t>9881012053</t>
-  </si>
-  <si>
-    <t>9881012054</t>
-  </si>
-  <si>
-    <t>9881012055</t>
-  </si>
-  <si>
-    <t>testuser151@mail.com</t>
-  </si>
-  <si>
-    <t>testuser152@mail.com</t>
-  </si>
-  <si>
-    <t>testuser153@mail.com</t>
-  </si>
-  <si>
-    <t>testuser154@mail.com</t>
-  </si>
-  <si>
-    <t>testuser155@mail.com</t>
-  </si>
-  <si>
     <t>searchValue</t>
   </si>
   <si>
@@ -431,6 +401,36 @@
   </si>
   <si>
     <t>223</t>
+  </si>
+  <si>
+    <t>9881012056</t>
+  </si>
+  <si>
+    <t>9881012057</t>
+  </si>
+  <si>
+    <t>9881012058</t>
+  </si>
+  <si>
+    <t>9881012059</t>
+  </si>
+  <si>
+    <t>9881012060</t>
+  </si>
+  <si>
+    <t>testuser156@mail.com</t>
+  </si>
+  <si>
+    <t>testuser157@mail.com</t>
+  </si>
+  <si>
+    <t>testuser158@mail.com</t>
+  </si>
+  <si>
+    <t>testuser159@mail.com</t>
+  </si>
+  <si>
+    <t>testuser160@mail.com</t>
   </si>
 </sst>
 </file>
@@ -2392,13 +2392,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>111</v>
@@ -2481,13 +2481,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>112</v>
@@ -2570,13 +2570,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>111</v>
@@ -2659,13 +2659,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>112</v>
@@ -2748,13 +2748,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>112</v>
@@ -2852,7 +2852,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X2" sqref="A1:Y6"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3348,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -3374,7 +3374,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>27</v>
@@ -3400,7 +3400,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>34</v>
@@ -3426,7 +3426,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>35</v>
@@ -3452,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>36</v>
@@ -3478,7 +3478,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>36</v>

--- a/TestData/OrderTestData/orderTestCase.xlsx
+++ b/TestData/OrderTestData/orderTestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\OrderTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE445DC7-986D-44A6-9F11-C02071248EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D67C728-9668-4BF7-BE89-2EA4D34B31BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,34 +403,34 @@
     <t>223</t>
   </si>
   <si>
-    <t>9881012056</t>
-  </si>
-  <si>
-    <t>9881012057</t>
-  </si>
-  <si>
-    <t>9881012058</t>
-  </si>
-  <si>
-    <t>9881012059</t>
-  </si>
-  <si>
-    <t>9881012060</t>
-  </si>
-  <si>
-    <t>testuser156@mail.com</t>
-  </si>
-  <si>
-    <t>testuser157@mail.com</t>
-  </si>
-  <si>
-    <t>testuser158@mail.com</t>
-  </si>
-  <si>
-    <t>testuser159@mail.com</t>
-  </si>
-  <si>
-    <t>testuser160@mail.com</t>
+    <t>9881012066</t>
+  </si>
+  <si>
+    <t>9881012067</t>
+  </si>
+  <si>
+    <t>9881012068</t>
+  </si>
+  <si>
+    <t>9881012069</t>
+  </si>
+  <si>
+    <t>9881012070</t>
+  </si>
+  <si>
+    <t>testuser166@mail.com</t>
+  </si>
+  <si>
+    <t>testuser167@mail.com</t>
+  </si>
+  <si>
+    <t>testuser168@mail.com</t>
+  </si>
+  <si>
+    <t>testuser169@mail.com</t>
+  </si>
+  <si>
+    <t>testuser170@mail.com</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1293,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="X2" sqref="X2:X6"/>
     </sheetView>
   </sheetViews>
@@ -1796,7 +1796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECFF00E-9730-4B45-8873-16E5E2653898}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -2259,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75904CA-780D-4078-9ECB-A0AE5CFCF05B}">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2851,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C688C3D-51E4-4D9C-BBCF-CA6AF3FBDF3A}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X2:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestData/OrderTestData/orderTestCase.xlsx
+++ b/TestData/OrderTestData/orderTestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\OrderTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D67C728-9668-4BF7-BE89-2EA4D34B31BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7BB4D9-CA33-452C-ABE8-769ABCE97571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forCustomer" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="135">
   <si>
     <t>username</t>
   </si>
@@ -361,9 +361,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>2023-05-28</t>
-  </si>
-  <si>
     <t>2023-05-29</t>
   </si>
   <si>
@@ -403,34 +400,37 @@
     <t>223</t>
   </si>
   <si>
-    <t>9881012066</t>
-  </si>
-  <si>
-    <t>9881012067</t>
-  </si>
-  <si>
-    <t>9881012068</t>
-  </si>
-  <si>
-    <t>9881012069</t>
-  </si>
-  <si>
-    <t>9881012070</t>
-  </si>
-  <si>
-    <t>testuser166@mail.com</t>
-  </si>
-  <si>
-    <t>testuser167@mail.com</t>
-  </si>
-  <si>
-    <t>testuser168@mail.com</t>
-  </si>
-  <si>
-    <t>testuser169@mail.com</t>
-  </si>
-  <si>
-    <t>testuser170@mail.com</t>
+    <t>9860838855</t>
+  </si>
+  <si>
+    <t>9881012076</t>
+  </si>
+  <si>
+    <t>9881012077</t>
+  </si>
+  <si>
+    <t>98810120738</t>
+  </si>
+  <si>
+    <t>9881012079</t>
+  </si>
+  <si>
+    <t>9881012080</t>
+  </si>
+  <si>
+    <t>testuser176@mail.com</t>
+  </si>
+  <si>
+    <t>testuser177@mail.com</t>
+  </si>
+  <si>
+    <t>testuser178@mail.com</t>
+  </si>
+  <si>
+    <t>testuser179@mail.com</t>
+  </si>
+  <si>
+    <t>testuser180@mail.com</t>
   </si>
 </sst>
 </file>
@@ -1293,8 +1293,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:X6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1404,8 +1404,8 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>9860838858</v>
+      <c r="C2" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>40</v>
@@ -1468,7 +1468,7 @@
         <v>31</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y2" s="1">
         <v>100900</v>
@@ -1545,7 +1545,7 @@
         <v>79</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="1">
         <v>100900</v>
@@ -1622,7 +1622,7 @@
         <v>81</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y4" s="1">
         <v>100900</v>
@@ -1699,7 +1699,7 @@
         <v>82</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y5" s="1">
         <v>100900</v>
@@ -1776,7 +1776,7 @@
         <v>82</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y6" s="1">
         <v>100900</v>
@@ -1796,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECFF00E-9730-4B45-8873-16E5E2653898}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2250,7 +2250,7 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E2:E6 I2:I6 S2:S6 X2:X6" numberStoredAsText="1"/>
+    <ignoredError sqref="E2:E6 I2:I6 S2:S6 X2:X6 M2:M6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2259,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75904CA-780D-4078-9ECB-A0AE5CFCF05B}">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2395,7 +2395,7 @@
         <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>130</v>
@@ -2404,7 +2404,7 @@
         <v>111</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>26</v>
@@ -2467,7 +2467,7 @@
         <v>31</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC2" s="1">
         <v>100900</v>
@@ -2484,16 +2484,16 @@
         <v>126</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>40</v>
@@ -2556,7 +2556,7 @@
         <v>79</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC3" s="1">
         <v>100900</v>
@@ -2573,7 +2573,7 @@
         <v>127</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>132</v>
@@ -2582,7 +2582,7 @@
         <v>111</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>26</v>
@@ -2645,7 +2645,7 @@
         <v>31</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC4" s="1">
         <v>100900</v>
@@ -2662,16 +2662,16 @@
         <v>128</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>133</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>40</v>
@@ -2734,7 +2734,7 @@
         <v>79</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC5" s="1">
         <v>100900</v>
@@ -2751,16 +2751,16 @@
         <v>129</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>134</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>40</v>
@@ -2823,7 +2823,7 @@
         <v>79</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC6" s="1">
         <v>100900</v>
@@ -2851,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C688C3D-51E4-4D9C-BBCF-CA6AF3FBDF3A}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X2:X3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2944,8 +2944,8 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>9860838858</v>
+      <c r="C2" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>40</v>
@@ -3008,7 +3008,7 @@
         <v>31</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y2" s="1">
         <v>100900</v>
@@ -3085,7 +3085,7 @@
         <v>79</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="1">
         <v>100900</v>
@@ -3162,7 +3162,7 @@
         <v>81</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y4" s="1">
         <v>100900</v>
@@ -3239,7 +3239,7 @@
         <v>82</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y5" s="1">
         <v>100900</v>
@@ -3316,7 +3316,7 @@
         <v>82</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y6" s="1">
         <v>100900</v>
@@ -3325,7 +3325,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C3:C6 G2:G6 K2:K6" numberStoredAsText="1"/>
+    <ignoredError sqref="C2:C6 G2:G6 K2:K6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3334,7 +3334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641D3458-B4AC-4339-95D6-C05AB498F0B5}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -3348,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -3374,7 +3374,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>27</v>
@@ -3400,7 +3400,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>34</v>
@@ -3426,7 +3426,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>35</v>
@@ -3452,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>36</v>
@@ -3478,7 +3478,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>36</v>

--- a/TestData/OrderTestData/orderTestCase.xlsx
+++ b/TestData/OrderTestData/orderTestCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\OrderTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7BB4D9-CA33-452C-ABE8-769ABCE97571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07687BD7-40C8-4633-B904-8BFBD545B3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forCustomer" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="131">
   <si>
     <t>username</t>
   </si>
@@ -367,21 +367,6 @@
     <t>Siliguri</t>
   </si>
   <si>
-    <t>abced Test 1</t>
-  </si>
-  <si>
-    <t>abced Test 2</t>
-  </si>
-  <si>
-    <t>abced Test 3</t>
-  </si>
-  <si>
-    <t>abced Test 4</t>
-  </si>
-  <si>
-    <t>abced Test 5</t>
-  </si>
-  <si>
     <t>searchValue</t>
   </si>
   <si>
@@ -403,34 +388,37 @@
     <t>9860838855</t>
   </si>
   <si>
-    <t>9881012076</t>
-  </si>
-  <si>
-    <t>9881012077</t>
-  </si>
-  <si>
-    <t>98810120738</t>
-  </si>
-  <si>
-    <t>9881012079</t>
-  </si>
-  <si>
-    <t>9881012080</t>
-  </si>
-  <si>
-    <t>testuser176@mail.com</t>
-  </si>
-  <si>
-    <t>testuser177@mail.com</t>
-  </si>
-  <si>
-    <t>testuser178@mail.com</t>
-  </si>
-  <si>
-    <t>testuser179@mail.com</t>
-  </si>
-  <si>
-    <t>testuser180@mail.com</t>
+    <t>2023-07-29</t>
+  </si>
+  <si>
+    <t>abced Test 90</t>
+  </si>
+  <si>
+    <t>abced Test 91</t>
+  </si>
+  <si>
+    <t>abced Test 92</t>
+  </si>
+  <si>
+    <t>abced Test 93</t>
+  </si>
+  <si>
+    <t>abced Test 94</t>
+  </si>
+  <si>
+    <t>testuser195@mail.com</t>
+  </si>
+  <si>
+    <t>testuser196@mail.com</t>
+  </si>
+  <si>
+    <t>testuser197@mail.com</t>
+  </si>
+  <si>
+    <t>testuser198@mail.com</t>
+  </si>
+  <si>
+    <t>testuser199@mail.com</t>
   </si>
 </sst>
 </file>
@@ -1293,8 +1281,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1404,8 +1392,8 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>124</v>
+      <c r="C2">
+        <v>9860838855</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>40</v>
@@ -1468,7 +1456,7 @@
         <v>31</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Y2" s="1">
         <v>100900</v>
@@ -1545,7 +1533,7 @@
         <v>79</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Y3" s="1">
         <v>100900</v>
@@ -1622,7 +1610,7 @@
         <v>81</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Y4" s="1">
         <v>100900</v>
@@ -1699,7 +1687,7 @@
         <v>82</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Y5" s="1">
         <v>100900</v>
@@ -1776,7 +1764,7 @@
         <v>82</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Y6" s="1">
         <v>100900</v>
@@ -2259,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75904CA-780D-4078-9ECB-A0AE5CFCF05B}">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2391,14 +2379,14 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>125</v>
+      <c r="C2">
+        <v>9881012095</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>111</v>
@@ -2467,7 +2455,7 @@
         <v>31</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AC2" s="1">
         <v>100900</v>
@@ -2480,14 +2468,14 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>126</v>
+      <c r="C3">
+        <v>9881012096</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>111</v>
@@ -2556,7 +2544,7 @@
         <v>79</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AC3" s="1">
         <v>100900</v>
@@ -2569,14 +2557,14 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>127</v>
+      <c r="C4">
+        <v>9881012097</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>111</v>
@@ -2645,7 +2633,7 @@
         <v>31</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AC4" s="1">
         <v>100900</v>
@@ -2658,14 +2646,14 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>128</v>
+      <c r="C5">
+        <v>9881012098</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>111</v>
@@ -2734,7 +2722,7 @@
         <v>79</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AC5" s="1">
         <v>100900</v>
@@ -2747,14 +2735,14 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>129</v>
+      <c r="C6">
+        <v>9881012099</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>111</v>
@@ -2823,7 +2811,7 @@
         <v>79</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AC6" s="1">
         <v>100900</v>
@@ -2833,11 +2821,11 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{28BACDD6-1C1A-4418-AD6D-9CF3E9C2C6F3}"/>
-    <hyperlink ref="E3:E6" r:id="rId2" display="testuser111@mail.com" xr:uid="{8D141152-0D9B-4A31-B82D-818FB4890CCA}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{6CAB85A3-9E25-46E6-8953-CE2579296C0A}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{2791EC7A-45F5-4553-9509-C8875B8E2693}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{9C8F5A5A-261A-4EA9-B13C-AAF0B559B418}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{571661CA-9FA4-41E3-B8E7-8B83947D2F73}"/>
+    <hyperlink ref="E3:E6" r:id="rId2" display="testuser195@mail.com" xr:uid="{4C52E991-461C-4646-9EEC-EDABA8BA5181}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{B5475AA0-315B-4C53-8CF0-0DD5A7A8BA76}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{987B4392-6433-43F4-B0B3-0E5077744684}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{91CCB15F-F00A-4D30-9B3D-A36B03C36AFF}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{E99B1997-ECED-4E27-9C3F-2FEC34CAB19F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -2851,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C688C3D-51E4-4D9C-BBCF-CA6AF3FBDF3A}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2945,7 +2933,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>40</v>
@@ -3008,7 +2996,7 @@
         <v>31</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Y2" s="1">
         <v>100900</v>
@@ -3085,7 +3073,7 @@
         <v>79</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Y3" s="1">
         <v>100900</v>
@@ -3162,7 +3150,7 @@
         <v>81</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Y4" s="1">
         <v>100900</v>
@@ -3239,7 +3227,7 @@
         <v>82</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Y5" s="1">
         <v>100900</v>
@@ -3316,7 +3304,7 @@
         <v>82</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Y6" s="1">
         <v>100900</v>
@@ -3348,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -3374,7 +3362,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>27</v>
@@ -3400,7 +3388,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>34</v>
@@ -3426,7 +3414,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>35</v>
@@ -3452,7 +3440,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>36</v>
@@ -3478,7 +3466,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>36</v>

--- a/TestData/OrderTestData/orderTestCase.xlsx
+++ b/TestData/OrderTestData/orderTestCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\OrderTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07687BD7-40C8-4633-B904-8BFBD545B3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1269EAF-C17D-4472-99C9-627A8BF7DE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forCustomer" sheetId="1" r:id="rId1"/>
@@ -391,34 +391,34 @@
     <t>2023-07-29</t>
   </si>
   <si>
-    <t>abced Test 90</t>
-  </si>
-  <si>
-    <t>abced Test 91</t>
-  </si>
-  <si>
-    <t>abced Test 92</t>
-  </si>
-  <si>
-    <t>abced Test 93</t>
-  </si>
-  <si>
-    <t>abced Test 94</t>
-  </si>
-  <si>
-    <t>testuser195@mail.com</t>
-  </si>
-  <si>
-    <t>testuser196@mail.com</t>
-  </si>
-  <si>
-    <t>testuser197@mail.com</t>
-  </si>
-  <si>
-    <t>testuser198@mail.com</t>
-  </si>
-  <si>
-    <t>testuser199@mail.com</t>
+    <t>abced Test 95</t>
+  </si>
+  <si>
+    <t>abced Test 96</t>
+  </si>
+  <si>
+    <t>abced Test 97</t>
+  </si>
+  <si>
+    <t>abced Test 98</t>
+  </si>
+  <si>
+    <t>abced Test 99</t>
+  </si>
+  <si>
+    <t>testuser200@mail.com</t>
+  </si>
+  <si>
+    <t>testuser201@mail.com</t>
+  </si>
+  <si>
+    <t>testuser202@mail.com</t>
+  </si>
+  <si>
+    <t>testuser203@mail.com</t>
+  </si>
+  <si>
+    <t>testuser204@mail.com</t>
   </si>
 </sst>
 </file>
@@ -2247,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75904CA-780D-4078-9ECB-A0AE5CFCF05B}">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2380,7 +2380,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>9881012095</v>
+        <v>9881012100</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>121</v>
@@ -2469,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>9881012096</v>
+        <v>9881012101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>122</v>
@@ -2558,7 +2558,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>9881012097</v>
+        <v>9881012102</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>123</v>
@@ -2647,7 +2647,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>9881012098</v>
+        <v>9881012103</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>124</v>
@@ -2736,7 +2736,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>9881012099</v>
+        <v>9881012104</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>125</v>
@@ -2821,11 +2821,11 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{28BACDD6-1C1A-4418-AD6D-9CF3E9C2C6F3}"/>
-    <hyperlink ref="E3:E6" r:id="rId2" display="testuser195@mail.com" xr:uid="{4C52E991-461C-4646-9EEC-EDABA8BA5181}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{B5475AA0-315B-4C53-8CF0-0DD5A7A8BA76}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{987B4392-6433-43F4-B0B3-0E5077744684}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{91CCB15F-F00A-4D30-9B3D-A36B03C36AFF}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{E99B1997-ECED-4E27-9C3F-2FEC34CAB19F}"/>
+    <hyperlink ref="E3:E6" r:id="rId2" display="testuser200@mail.com" xr:uid="{5B82D31D-73A3-4849-9257-A2CED6475424}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{B1A44BBE-B1E4-4B5E-95DB-C4FAACABCF40}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{841B5B5A-1DC3-4583-B603-2EEC43CDC119}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{15A494EE-973C-4869-81DA-A496E75BD61D}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{90F44E60-6189-43AF-BD9E-F6220929C081}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -2839,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C688C3D-51E4-4D9C-BBCF-CA6AF3FBDF3A}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:X6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3322,7 +3322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641D3458-B4AC-4339-95D6-C05AB498F0B5}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/TestData/OrderTestData/orderTestCase.xlsx
+++ b/TestData/OrderTestData/orderTestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\OrderTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1269EAF-C17D-4472-99C9-627A8BF7DE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128008D2-24E8-43A6-8F80-58CAEA4A5346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forCustomer" sheetId="1" r:id="rId1"/>
@@ -391,34 +391,34 @@
     <t>2023-07-29</t>
   </si>
   <si>
-    <t>abced Test 95</t>
-  </si>
-  <si>
-    <t>abced Test 96</t>
-  </si>
-  <si>
-    <t>abced Test 97</t>
-  </si>
-  <si>
-    <t>abced Test 98</t>
-  </si>
-  <si>
-    <t>abced Test 99</t>
-  </si>
-  <si>
-    <t>testuser200@mail.com</t>
-  </si>
-  <si>
-    <t>testuser201@mail.com</t>
-  </si>
-  <si>
-    <t>testuser202@mail.com</t>
-  </si>
-  <si>
-    <t>testuser203@mail.com</t>
-  </si>
-  <si>
-    <t>testuser204@mail.com</t>
+    <t>abced Test 110</t>
+  </si>
+  <si>
+    <t>abced Test 111</t>
+  </si>
+  <si>
+    <t>abced Test 112</t>
+  </si>
+  <si>
+    <t>abced Test 113</t>
+  </si>
+  <si>
+    <t>abced Test 114</t>
+  </si>
+  <si>
+    <t>testuser215@mail.com</t>
+  </si>
+  <si>
+    <t>testuser216@mail.com</t>
+  </si>
+  <si>
+    <t>testuser217@mail.com</t>
+  </si>
+  <si>
+    <t>testuser218@mail.com</t>
+  </si>
+  <si>
+    <t>testuser219@mail.com</t>
   </si>
 </sst>
 </file>
@@ -1281,15 +1281,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:X6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -1392,7 +1392,7 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>9860838855</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2247,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75904CA-780D-4078-9ECB-A0AE5CFCF05B}">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2380,7 +2380,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>9881012100</v>
+        <v>9881012115</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>121</v>
@@ -2469,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>9881012101</v>
+        <v>9881012116</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>122</v>
@@ -2558,7 +2558,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>9881012102</v>
+        <v>9881012117</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>123</v>
@@ -2647,7 +2647,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>9881012103</v>
+        <v>9881012118</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>124</v>
@@ -2736,7 +2736,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>9881012104</v>
+        <v>9881012119</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>125</v>
@@ -2821,11 +2821,11 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{28BACDD6-1C1A-4418-AD6D-9CF3E9C2C6F3}"/>
-    <hyperlink ref="E3:E6" r:id="rId2" display="testuser200@mail.com" xr:uid="{5B82D31D-73A3-4849-9257-A2CED6475424}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{B1A44BBE-B1E4-4B5E-95DB-C4FAACABCF40}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{841B5B5A-1DC3-4583-B603-2EEC43CDC119}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{15A494EE-973C-4869-81DA-A496E75BD61D}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{90F44E60-6189-43AF-BD9E-F6220929C081}"/>
+    <hyperlink ref="E3:E6" r:id="rId2" display="testuser205@mail.com" xr:uid="{7658EC07-9A45-4DEF-B448-A305278C7F65}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{BBE3167A-4402-4097-BF2A-A7FCE92E3AE5}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{CC6D7497-D339-47C2-A164-84B10418FA88}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{358F5849-0EF7-46D4-874B-BA7AAF045205}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{C6EE91D1-AFD6-48F7-AA53-815C232D853C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -2839,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C688C3D-51E4-4D9C-BBCF-CA6AF3FBDF3A}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3322,7 +3322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641D3458-B4AC-4339-95D6-C05AB498F0B5}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/TestData/OrderTestData/orderTestCase.xlsx
+++ b/TestData/OrderTestData/orderTestCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\OrderTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128008D2-24E8-43A6-8F80-58CAEA4A5346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509E2486-CD96-4641-B306-508BCDC9BC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forCustomer" sheetId="1" r:id="rId1"/>
@@ -388,37 +388,37 @@
     <t>9860838855</t>
   </si>
   <si>
-    <t>2023-07-29</t>
-  </si>
-  <si>
-    <t>abced Test 110</t>
-  </si>
-  <si>
-    <t>abced Test 111</t>
-  </si>
-  <si>
-    <t>abced Test 112</t>
-  </si>
-  <si>
-    <t>abced Test 113</t>
-  </si>
-  <si>
-    <t>abced Test 114</t>
-  </si>
-  <si>
-    <t>testuser215@mail.com</t>
-  </si>
-  <si>
-    <t>testuser216@mail.com</t>
-  </si>
-  <si>
-    <t>testuser217@mail.com</t>
-  </si>
-  <si>
-    <t>testuser218@mail.com</t>
-  </si>
-  <si>
-    <t>testuser219@mail.com</t>
+    <t>2023-08-29</t>
+  </si>
+  <si>
+    <t>abced Test 136</t>
+  </si>
+  <si>
+    <t>abced Test 137</t>
+  </si>
+  <si>
+    <t>abced Test 138</t>
+  </si>
+  <si>
+    <t>abced Test 139</t>
+  </si>
+  <si>
+    <t>testuser236@mail.com</t>
+  </si>
+  <si>
+    <t>abced Test 140</t>
+  </si>
+  <si>
+    <t>testuser237@mail.com</t>
+  </si>
+  <si>
+    <t>testuser238@mail.com</t>
+  </si>
+  <si>
+    <t>testuser239@mail.com</t>
+  </si>
+  <si>
+    <t>testuser240@mail.com</t>
   </si>
 </sst>
 </file>
@@ -1281,8 +1281,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2247,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75904CA-780D-4078-9ECB-A0AE5CFCF05B}">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2380,13 +2380,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>9881012115</v>
+        <v>9881012136</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>111</v>
@@ -2469,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>9881012116</v>
+        <v>9881012137</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>122</v>
@@ -2558,7 +2558,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>9881012117</v>
+        <v>9881012138</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>123</v>
@@ -2647,7 +2647,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>9881012118</v>
+        <v>9881012139</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>124</v>
@@ -2736,10 +2736,10 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>9881012119</v>
+        <v>9881012140</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>130</v>
@@ -2821,11 +2821,11 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{28BACDD6-1C1A-4418-AD6D-9CF3E9C2C6F3}"/>
-    <hyperlink ref="E3:E6" r:id="rId2" display="testuser205@mail.com" xr:uid="{7658EC07-9A45-4DEF-B448-A305278C7F65}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{BBE3167A-4402-4097-BF2A-A7FCE92E3AE5}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{CC6D7497-D339-47C2-A164-84B10418FA88}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{358F5849-0EF7-46D4-874B-BA7AAF045205}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{C6EE91D1-AFD6-48F7-AA53-815C232D853C}"/>
+    <hyperlink ref="E3:E6" r:id="rId2" display="testuser236@mail.com" xr:uid="{EEA17BE9-A77E-4493-A593-36DA3C3C1699}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{D4D13FFC-9A42-4F62-80ED-5F895C7B6AAF}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{E9BCA116-0367-4766-B291-0A5205A311B2}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{526A08E4-2FAB-41D8-8D78-D90E041876E7}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{C4EC9A78-BA6B-4E28-A330-2E126B7F6C01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -2839,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C688C3D-51E4-4D9C-BBCF-CA6AF3FBDF3A}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestData/OrderTestData/orderTestCase.xlsx
+++ b/TestData/OrderTestData/orderTestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\OrderTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509E2486-CD96-4641-B306-508BCDC9BC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A44BB19-778F-4EA2-8EF9-9AF6C6DAE82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forCustomer" sheetId="1" r:id="rId1"/>
@@ -391,34 +391,34 @@
     <t>2023-08-29</t>
   </si>
   <si>
-    <t>abced Test 136</t>
-  </si>
-  <si>
-    <t>abced Test 137</t>
-  </si>
-  <si>
-    <t>abced Test 138</t>
-  </si>
-  <si>
-    <t>abced Test 139</t>
-  </si>
-  <si>
-    <t>testuser236@mail.com</t>
-  </si>
-  <si>
-    <t>abced Test 140</t>
-  </si>
-  <si>
-    <t>testuser237@mail.com</t>
-  </si>
-  <si>
-    <t>testuser238@mail.com</t>
-  </si>
-  <si>
-    <t>testuser239@mail.com</t>
-  </si>
-  <si>
-    <t>testuser240@mail.com</t>
+    <t>abced Test 162</t>
+  </si>
+  <si>
+    <t>abced Test 163</t>
+  </si>
+  <si>
+    <t>abced Test 164</t>
+  </si>
+  <si>
+    <t>abced Test 165</t>
+  </si>
+  <si>
+    <t>abced Test 166</t>
+  </si>
+  <si>
+    <t>testuser262@mail.com</t>
+  </si>
+  <si>
+    <t>testuser263@mail.com</t>
+  </si>
+  <si>
+    <t>testuser264@mail.com</t>
+  </si>
+  <si>
+    <t>testuser265@mail.com</t>
+  </si>
+  <si>
+    <t>testuser266@mail.com</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1281,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="X3" sqref="X3:X6"/>
     </sheetView>
   </sheetViews>
@@ -1785,7 +1785,7 @@
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2247,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75904CA-780D-4078-9ECB-A0AE5CFCF05B}">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2380,13 +2380,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>9881012136</v>
+        <v>9881012162</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>111</v>
@@ -2469,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>9881012137</v>
+        <v>9881012163</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>122</v>
@@ -2558,7 +2558,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>9881012138</v>
+        <v>9881012164</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>123</v>
@@ -2647,7 +2647,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>9881012139</v>
+        <v>9881012165</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>124</v>
@@ -2736,10 +2736,10 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>9881012140</v>
+        <v>9881012166</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>130</v>
@@ -2820,15 +2820,14 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{28BACDD6-1C1A-4418-AD6D-9CF3E9C2C6F3}"/>
-    <hyperlink ref="E3:E6" r:id="rId2" display="testuser236@mail.com" xr:uid="{EEA17BE9-A77E-4493-A593-36DA3C3C1699}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{D4D13FFC-9A42-4F62-80ED-5F895C7B6AAF}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{E9BCA116-0367-4766-B291-0A5205A311B2}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{526A08E4-2FAB-41D8-8D78-D90E041876E7}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{C4EC9A78-BA6B-4E28-A330-2E126B7F6C01}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{DEDDA9AF-D258-47F2-84A2-309AA6B366D0}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{2C3E5A1B-6171-4C88-9A16-AF850AF10DED}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{EB0D526A-6C4D-4683-8E4C-184541D74E73}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{4335E240-9052-41CF-8F27-CB3A53E20FEF}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{C9F5B23B-E641-4553-80DA-DFEC2CB94E95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
   <ignoredErrors>
     <ignoredError sqref="K2 O2" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -3322,11 +3321,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641D3458-B4AC-4339-95D6-C05AB498F0B5}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
